--- a/results/pvalue_OFFSIDES_all_indication_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_indication_AUPR+AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.819</t>
+          <t>6.873</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.556</t>
+          <t>6.623</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.674</t>
+          <t>7.768</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.962</t>
+          <t>6.874</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31.466</t>
+          <t>39.907</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
